--- a/Course Material/Presentations/Content delivery python training.xlsx
+++ b/Course Material/Presentations/Content delivery python training.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchugh\Dropbox\Python Training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UPES\Semester 1 2022\Online Python Training\PythonDevWork\Course Material\Presentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF81D5C-85EB-4D63-BFDE-7BC4970EEEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,12 +141,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -175,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -184,6 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,20 +471,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="103.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -498,29 +506,29 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -531,7 +539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -542,7 +550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -553,43 +561,43 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -600,7 +608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -611,7 +619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -622,7 +630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -633,7 +641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -644,7 +652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -655,7 +663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -666,7 +674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>16</v>
       </c>
